--- a/backend/foodgram_backend/admin_i_users.xlsx
+++ b/backend/foodgram_backend/admin_i_users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OskaLis\Documents\Sinhron\Lab_programista\Yandex_Praktika\05_moduly\15_Sprin\foodgram-project-react\backend\foodgram_backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB32E18-93C4-4F54-975A-98C24CF81722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F536F145-1DC0-4AFA-AD46-966D943804E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="230" yWindow="1490" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Аутентификация-Логин</t>
   </si>
   <si>
-    <t>9yP1egD75e</t>
-  </si>
-  <si>
     <t>n5Iaa9uOOw</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>9yP1egD555</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29.5" x14ac:dyDescent="0.5">
@@ -472,13 +472,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="31" x14ac:dyDescent="0.5">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -498,10 +498,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4"/>
     </row>
@@ -510,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
     </row>
